--- a/asset/dokumen/format-upload - honorer.xlsx
+++ b/asset/dokumen/format-upload - honorer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SKPD</t>
   </si>
@@ -53,91 +53,10 @@
     <t xml:space="preserve">tanggal_lahir </t>
   </si>
   <si>
-    <t>SUPRIANI, SKM</t>
-  </si>
-  <si>
-    <t>DESTY HESTYANNA MAINI, S.Kep.,Ns</t>
-  </si>
-  <si>
-    <t>NUGRAHWATI, Amd.Keb</t>
-  </si>
-  <si>
-    <t>HERMAN, SKM</t>
-  </si>
-  <si>
-    <t>MAMAT FEBRIAMAN MUSTANG, SKM</t>
-  </si>
-  <si>
-    <t>NURHAYATI, AMKL</t>
-  </si>
-  <si>
-    <t>RUSMINA, S.KM</t>
-  </si>
-  <si>
-    <t>ASMIH, AMKL</t>
-  </si>
-  <si>
-    <t>MASNI, S.K.M</t>
-  </si>
-  <si>
-    <t>2 Januari 2018</t>
-  </si>
-  <si>
-    <t>31 Desember 2018</t>
-  </si>
-  <si>
-    <t>Kambara</t>
-  </si>
-  <si>
-    <t>Bau-Bau</t>
-  </si>
-  <si>
-    <t>Baubau</t>
-  </si>
-  <si>
-    <t>Tarafu</t>
-  </si>
-  <si>
-    <t>Bataraguru</t>
-  </si>
-  <si>
-    <t>Laompo</t>
-  </si>
-  <si>
-    <t>Baadia</t>
-  </si>
-  <si>
-    <t>Wajo</t>
-  </si>
-  <si>
-    <t>Ambon</t>
-  </si>
-  <si>
-    <t>17 Pebruari 1993</t>
-  </si>
-  <si>
-    <t>14 Desember 1991</t>
-  </si>
-  <si>
-    <t>14 Januari 1995</t>
-  </si>
-  <si>
-    <t>29 Juni 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23 Januari 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22 September 1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23 Juli 1984</t>
-  </si>
-  <si>
-    <t>08 Mei 1989</t>
-  </si>
-  <si>
-    <t>Dinas Kesehatan</t>
+    <t>Pendidikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurusan </t>
   </si>
 </sst>
 </file>
@@ -187,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,25 +129,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,11 +187,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,27 +501,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="2.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -637,233 +549,131 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="19">
-        <v>28607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -873,7 +683,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="10"/>
@@ -883,7 +693,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="10"/>
@@ -893,7 +703,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="10"/>
@@ -903,7 +713,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
@@ -913,7 +723,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="10"/>
